--- a/Nikhila/Python/Lab Cycle - PY - 2023-24.xlsx
+++ b/Nikhila/Python/Lab Cycle - PY - 2023-24.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3CE5C1-FE44-45FC-99F0-C1CFDB758418}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lab Cycle" sheetId="1" r:id="rId1"/>
@@ -272,60 +273,6 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">Generate a list of four digit numbers in a given range with all their digits even and the number is a perfect square. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Display the given pyramid with step number accepted from user. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Accept a list of single digit numbers as input string. Concatenate the elements of the list as a single number.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Write a program that counts odd and even numbers in a given list.</t>
     </r>
   </si>
   <si>
@@ -525,12 +472,72 @@
   <si>
     <t>13.12.2023</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Display the given pyramid with step number accepted from user. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Write a program that counts odd and even numbers in a given list.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Accept a list of single digit numbers as input string. Concatenate the elements of the list as a single number.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -654,6 +661,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFFF0000"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -727,7 +752,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -798,48 +823,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -864,17 +847,68 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -969,6 +1003,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1004,6 +1055,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1179,11 +1247,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1198,22 +1266,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
+      <c r="A1" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
     </row>
     <row r="2" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="A2" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:5" s="4" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -1229,546 +1297,546 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="29">
+      <c r="A4" s="41">
         <v>1</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>109</v>
+      <c r="C4" s="45" t="s">
+        <v>106</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="24"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="45"/>
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="28"/>
+      <c r="E5" s="35"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="24"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="28"/>
+      <c r="E6" s="35"/>
     </row>
     <row r="7" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="24"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="45"/>
       <c r="D7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="28"/>
+      <c r="E7" s="35"/>
     </row>
     <row r="8" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="24"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="28"/>
+      <c r="E8" s="35"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="24"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="28"/>
+      <c r="E9" s="35"/>
     </row>
     <row r="10" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29">
+      <c r="A10" s="41">
         <v>2</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>95</v>
+      <c r="C10" s="45" t="s">
+        <v>92</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="28">
+        <v>88</v>
+      </c>
+      <c r="E10" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="24"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="28"/>
+      <c r="E11" s="35"/>
     </row>
     <row r="12" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="24"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="45"/>
       <c r="D12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="28"/>
+      <c r="E12" s="35"/>
     </row>
     <row r="13" spans="1:5" ht="181.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="24"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="45"/>
       <c r="D13" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E13" s="28"/>
+        <v>87</v>
+      </c>
+      <c r="E13" s="35"/>
     </row>
     <row r="14" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A14" s="29">
+      <c r="A14" s="41">
         <v>3</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="24" t="s">
-        <v>96</v>
+      <c r="C14" s="45" t="s">
+        <v>93</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="24"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="28"/>
+      <c r="E15" s="35"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="24"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="28"/>
+      <c r="E16" s="35"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="24"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="45"/>
       <c r="D17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="28"/>
+      <c r="E17" s="35"/>
     </row>
     <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="24"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="28"/>
+      <c r="E18" s="35"/>
     </row>
     <row r="19" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A19" s="29">
+      <c r="A19" s="41">
         <v>4</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="24" t="s">
-        <v>97</v>
+      <c r="C19" s="45" t="s">
+        <v>94</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="24"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="45"/>
       <c r="D20" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="28"/>
+      <c r="E20" s="35"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="24"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="28"/>
+      <c r="E21" s="35"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="24"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="28"/>
+      <c r="E22" s="35"/>
     </row>
     <row r="23" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="24"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="45"/>
       <c r="D23" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="28"/>
+      <c r="E23" s="35"/>
     </row>
     <row r="24" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="24"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="45"/>
       <c r="D24" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="28"/>
+      <c r="E24" s="35"/>
     </row>
     <row r="25" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="24"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="45"/>
       <c r="D25" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="28"/>
+      <c r="E25" s="35"/>
     </row>
     <row r="26" spans="1:5" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="29">
+      <c r="A26" s="41">
         <v>5</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="24" t="s">
-        <v>98</v>
+      <c r="C26" s="45" t="s">
+        <v>95</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E26" s="35">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="24"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="45"/>
       <c r="D27" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="28"/>
+      <c r="E27" s="35"/>
     </row>
     <row r="28" spans="1:5" ht="99" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="24"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="45"/>
       <c r="D28" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="28"/>
+      <c r="E28" s="35"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="29">
+      <c r="A29" s="41">
         <v>6</v>
       </c>
-      <c r="B29" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>99</v>
+      <c r="B29" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>96</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="28">
+      <c r="E29" s="35">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="24"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="45"/>
       <c r="D30" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="28"/>
+      <c r="E30" s="35"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="24"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="45"/>
       <c r="D31" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="28"/>
+      <c r="E31" s="35"/>
     </row>
     <row r="32" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="24"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="45"/>
       <c r="D32" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E32" s="28"/>
+      <c r="E32" s="35"/>
     </row>
     <row r="33" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E33" s="28"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="E33" s="35"/>
     </row>
     <row r="34" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="29">
+      <c r="A34" s="41">
         <v>7</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="24" t="s">
-        <v>100</v>
+      <c r="C34" s="45" t="s">
+        <v>97</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="28">
+      <c r="E34" s="35">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="24"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="45"/>
       <c r="D35" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E35" s="28"/>
+      <c r="E35" s="35"/>
     </row>
     <row r="36" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="24"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="45"/>
       <c r="D36" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E36" s="28"/>
+      <c r="E36" s="35"/>
     </row>
     <row r="37" spans="1:5" ht="66" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="24"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="45"/>
       <c r="D37" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E37" s="28"/>
+      <c r="E37" s="35"/>
     </row>
     <row r="38" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A38" s="29">
+      <c r="A38" s="41">
         <v>8</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="25" t="s">
-        <v>119</v>
+      <c r="C38" s="46" t="s">
+        <v>116</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E38" s="28">
+      <c r="E38" s="35">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E39" s="28"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="E39" s="35"/>
     </row>
     <row r="40" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="26"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="47"/>
       <c r="D40" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="28"/>
+      <c r="E40" s="35"/>
     </row>
     <row r="41" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="29"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="26"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="47"/>
       <c r="D41" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E41" s="28"/>
+      <c r="E41" s="35"/>
     </row>
     <row r="42" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="29"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="11" t="s">
+      <c r="A42" s="41"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="E42" s="28"/>
+      <c r="E42" s="35"/>
     </row>
     <row r="43" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="29">
+      <c r="A43" s="41">
         <v>9</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="D43" s="11" t="s">
+      <c r="C43" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="E43" s="28">
+      <c r="E43" s="35">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="29"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="26"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E44" s="28"/>
+      <c r="E44" s="35"/>
     </row>
     <row r="45" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="29"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="12" t="s">
+      <c r="A45" s="41"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="E45" s="35"/>
+    </row>
+    <row r="46" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A46" s="41">
+        <v>10</v>
+      </c>
+      <c r="B46" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="E45" s="28"/>
-    </row>
-    <row r="46" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A46" s="29">
-        <v>10</v>
-      </c>
-      <c r="B46" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>101</v>
+      <c r="C46" s="46" t="s">
+        <v>98</v>
       </c>
       <c r="D46" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E46" s="28">
+      <c r="E46" s="35">
         <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="132" x14ac:dyDescent="0.25">
-      <c r="A47" s="29"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="26"/>
+      <c r="A47" s="41"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="47"/>
       <c r="D47" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E47" s="28"/>
+        <v>89</v>
+      </c>
+      <c r="E47" s="35"/>
     </row>
     <row r="48" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="27"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="48"/>
       <c r="D48" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E48" s="28"/>
+      <c r="E48" s="35"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="29">
+      <c r="A49" s="41">
         <v>11</v>
       </c>
-      <c r="B49" s="28" t="s">
+      <c r="B49" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="25" t="s">
-        <v>102</v>
+      <c r="C49" s="46" t="s">
+        <v>99</v>
       </c>
       <c r="D49" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E49" s="28">
+      <c r="E49" s="35">
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="29"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="26"/>
+      <c r="A50" s="41"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="47"/>
       <c r="D50" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="E50" s="28"/>
+        <v>80</v>
+      </c>
+      <c r="E50" s="35"/>
     </row>
     <row r="51" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="29"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="26"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="47"/>
       <c r="D51" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E51" s="28"/>
+      <c r="E51" s="35"/>
     </row>
     <row r="52" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="29"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="26"/>
+      <c r="A52" s="41"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="47"/>
       <c r="D52" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E52" s="28"/>
+      <c r="E52" s="35"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="29"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="27"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="48"/>
       <c r="D53" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E53" s="28"/>
+      <c r="E53" s="35"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="17">
@@ -1778,7 +1846,7 @@
         <v>53</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D54" s="15" t="s">
         <v>54</v>
@@ -1786,214 +1854,214 @@
       <c r="E54" s="20"/>
     </row>
     <row r="55" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A55" s="29">
+      <c r="A55" s="41">
         <v>13</v>
       </c>
-      <c r="B55" s="28" t="s">
+      <c r="B55" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="C55" s="25" t="s">
-        <v>104</v>
+      <c r="C55" s="46" t="s">
+        <v>101</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E55" s="28">
+      <c r="E55" s="35">
         <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="29"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="26"/>
+      <c r="A56" s="41"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="47"/>
       <c r="D56" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E56" s="28"/>
+      <c r="E56" s="35"/>
     </row>
     <row r="57" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="29"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="26"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="47"/>
       <c r="D57" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E57" s="28"/>
+        <v>90</v>
+      </c>
+      <c r="E57" s="35"/>
     </row>
     <row r="58" spans="1:5" ht="99" x14ac:dyDescent="0.25">
-      <c r="A58" s="29"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="27"/>
+      <c r="A58" s="41"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="48"/>
       <c r="D58" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E58" s="28"/>
+        <v>91</v>
+      </c>
+      <c r="E58" s="35"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="29">
+      <c r="A59" s="41">
         <v>14</v>
       </c>
-      <c r="B59" s="28" t="s">
+      <c r="B59" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C59" s="25" t="s">
-        <v>105</v>
+      <c r="C59" s="46" t="s">
+        <v>102</v>
       </c>
       <c r="D59" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E59" s="28">
+      <c r="E59" s="35">
         <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="29"/>
-      <c r="B60" s="28"/>
-      <c r="C60" s="26"/>
+      <c r="A60" s="41"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="47"/>
       <c r="D60" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E60" s="28"/>
+      <c r="E60" s="35"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="29"/>
-      <c r="B61" s="28"/>
-      <c r="C61" s="26"/>
+      <c r="A61" s="41"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="47"/>
       <c r="D61" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E61" s="28"/>
+      <c r="E61" s="35"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="29"/>
-      <c r="B62" s="28"/>
-      <c r="C62" s="27"/>
+      <c r="A62" s="41"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="48"/>
       <c r="D62" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E62" s="28"/>
+      <c r="E62" s="35"/>
     </row>
     <row r="63" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A63" s="29">
+      <c r="A63" s="41">
         <v>15</v>
       </c>
-      <c r="B63" s="28" t="s">
+      <c r="B63" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="25" t="s">
-        <v>106</v>
+      <c r="C63" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="D63" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E63" s="28">
+      <c r="E63" s="35">
         <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A64" s="29"/>
-      <c r="B64" s="28"/>
-      <c r="C64" s="26"/>
+      <c r="A64" s="41"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="47"/>
       <c r="D64" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E64" s="28"/>
+      <c r="E64" s="35"/>
     </row>
     <row r="65" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A65" s="29"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="27"/>
+      <c r="A65" s="41"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="48"/>
       <c r="D65" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E65" s="28"/>
+      <c r="E65" s="35"/>
     </row>
     <row r="66" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A66" s="29">
+      <c r="A66" s="41">
         <v>16</v>
       </c>
-      <c r="B66" s="28" t="s">
+      <c r="B66" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C66" s="24" t="s">
-        <v>107</v>
+      <c r="C66" s="45" t="s">
+        <v>104</v>
       </c>
       <c r="D66" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E66" s="28">
+      <c r="E66" s="35">
         <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="29"/>
-      <c r="B67" s="28"/>
-      <c r="C67" s="24"/>
+      <c r="A67" s="41"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="45"/>
       <c r="D67" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E67" s="28"/>
+      <c r="E67" s="35"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="30">
+      <c r="A68" s="42">
         <v>18</v>
       </c>
       <c r="B68" s="18"/>
-      <c r="C68" s="25" t="s">
-        <v>108</v>
+      <c r="C68" s="46" t="s">
+        <v>105</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E68" s="35">
+      <c r="E68" s="36">
         <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="31"/>
-      <c r="B69" s="28" t="s">
+      <c r="A69" s="43"/>
+      <c r="B69" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C69" s="26"/>
+      <c r="C69" s="47"/>
       <c r="D69" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E69" s="36"/>
+      <c r="E69" s="37"/>
     </row>
     <row r="70" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A70" s="32"/>
-      <c r="B70" s="28"/>
-      <c r="C70" s="27"/>
+      <c r="A70" s="44"/>
+      <c r="B70" s="35"/>
+      <c r="C70" s="48"/>
       <c r="D70" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E70" s="37"/>
+      <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="29">
+      <c r="A71" s="41">
         <v>19</v>
       </c>
-      <c r="B71" s="28" t="s">
+      <c r="B71" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="C71" s="24" t="s">
-        <v>120</v>
+      <c r="C71" s="45" t="s">
+        <v>117</v>
       </c>
       <c r="D71" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E71" s="28">
+      <c r="E71" s="35">
         <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A72" s="29"/>
-      <c r="B72" s="28"/>
-      <c r="C72" s="24"/>
+      <c r="A72" s="41"/>
+      <c r="B72" s="35"/>
+      <c r="C72" s="45"/>
       <c r="D72" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E72" s="28"/>
+      <c r="E72" s="35"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="22">
@@ -2001,10 +2069,10 @@
       </c>
       <c r="B73" s="21"/>
       <c r="C73" s="23" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E73" s="21"/>
     </row>
@@ -2016,15 +2084,69 @@
         <v>77</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E74" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="C19:C25"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="B26:B28"/>
     <mergeCell ref="E71:E72"/>
     <mergeCell ref="E68:E70"/>
     <mergeCell ref="A1:E1"/>
@@ -2041,60 +2163,6 @@
     <mergeCell ref="B55:B58"/>
     <mergeCell ref="A55:A58"/>
     <mergeCell ref="B59:B62"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B19:B25"/>
-    <mergeCell ref="A19:A25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="C4:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="C19:C25"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="C68:C70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2102,7 +2170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2111,58 +2179,58 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="38"/>
+    <col min="1" max="1" width="9.140625" style="24"/>
     <col min="2" max="2" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="40" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:2" s="26" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="27" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29">
+        <v>1</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="27" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="49">
+        <v>2</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="39" t="s">
+    </row>
+    <row r="4" spans="1:2" s="27" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="49"/>
+      <c r="B4" s="32" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="41" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43">
-        <v>1</v>
-      </c>
-      <c r="B2" s="45" t="s">
+    <row r="5" spans="1:2" s="27" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="49"/>
+      <c r="B5" s="33" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="41" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46">
-        <v>2</v>
-      </c>
-      <c r="B3" s="45" t="s">
+    <row r="6" spans="1:2" s="27" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="49"/>
+      <c r="B6" s="34" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="41" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47" t="s">
+    <row r="7" spans="1:2" s="27" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
+        <v>3</v>
+      </c>
+      <c r="B7" s="28" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="41" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
-      <c r="B5" s="48" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="41" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
-      <c r="B6" s="49" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="41" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44">
-        <v>3</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
